--- a/scrappers/2778-outros-produtos-e-servicos_products.xlsx
+++ b/scrappers/2778-outros-produtos-e-servicos_products.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Title</t>
   </si>
@@ -28,16 +28,40 @@
     <t>imagem</t>
   </si>
   <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Supplier</t>
+  </si>
+  <si>
+    <t>BOSCH NIVEL LASER GLL 3-80 CG+BM 1</t>
+  </si>
+  <si>
     <t>MONTAGEM AR CONDICIONADO</t>
   </si>
   <si>
+    <t>https://casapeixoto.pt/outros-produtos-e-servicos/projetos/mediacao-de-mao-de-obra/28773-bosch-nivel-laser-gll-3-80-cgbm-1</t>
+  </si>
+  <si>
     <t>https://casapeixoto.pt/outros-produtos-e-servicos/servicos/montagens/28612-montagem-ar-condicionado</t>
   </si>
   <si>
+    <t>759,00 €</t>
+  </si>
+  <si>
     <t>206,64 €</t>
   </si>
   <si>
+    <t>https://casapeixoto.pt/3315195-home_default/bosch-nivel-laser-gll-3-80-cgbm-1.jpg</t>
+  </si>
+  <si>
     <t>https://casapeixoto.pt/2736918-home_default/montagem-ar-condicionado.jpg</t>
+  </si>
+  <si>
+    <t>2778-outros-produtos-e-servicos</t>
+  </si>
+  <si>
+    <t>Casa Peixoto</t>
   </si>
 </sst>
 </file>
@@ -408,13 +432,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -427,25 +451,59 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
         <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="D3" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
